--- a/data/lacounty_zip_chci.xlsx
+++ b/data/lacounty_zip_chci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_\Dropbox\Data Science\UCLA\Git\los-angeles-tech-jobs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348E6A42-39CA-4C4B-A891-52F254C352D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A3F33-229F-4DF7-A11E-08FBCB50EBA2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23868" windowHeight="11940" tabRatio="492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23868" windowHeight="11940" tabRatio="492" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="3" r:id="rId1"/>
@@ -377,7 +377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC45C1D8-C5FF-40B4-9728-A6B1EB895B53}">
   <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -408,3978 +410,3982 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>90001</v>
+        <v>90263</v>
       </c>
       <c r="B2">
         <v>2009</v>
       </c>
       <c r="C2">
-        <v>92.39</v>
+        <v>225.05</v>
       </c>
       <c r="D2">
-        <v>29210</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>90002</v>
+        <v>90402</v>
       </c>
       <c r="B3">
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>99.88000000000001</v>
+        <v>192.99</v>
       </c>
       <c r="D3">
-        <v>23414</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>90003</v>
+        <v>90272</v>
       </c>
       <c r="B4">
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>98.73</v>
+        <v>189.04000000000002</v>
       </c>
       <c r="D4">
-        <v>33790</v>
+        <v>16370</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>90004</v>
+        <v>90077</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>132.26000000000002</v>
+        <v>188.81</v>
       </c>
       <c r="D5">
-        <v>43639</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>90005</v>
+        <v>91108</v>
       </c>
       <c r="B6">
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>125.58999999999999</v>
+        <v>187.88</v>
       </c>
       <c r="D6">
-        <v>28357</v>
+        <v>9411</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>90006</v>
+        <v>90049</v>
       </c>
       <c r="B7">
         <v>2009</v>
       </c>
       <c r="C7">
-        <v>106.30000000000001</v>
+        <v>185.85000000000002</v>
       </c>
       <c r="D7">
-        <v>36776</v>
+        <v>27929</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>90007</v>
+        <v>90274</v>
       </c>
       <c r="B8">
         <v>2009</v>
       </c>
       <c r="C8">
-        <v>112.93</v>
+        <v>185.76</v>
       </c>
       <c r="D8">
-        <v>19096</v>
+        <v>18326</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>90008</v>
+        <v>90266</v>
       </c>
       <c r="B9">
         <v>2009</v>
       </c>
       <c r="C9">
-        <v>138.64000000000001</v>
+        <v>185.23000000000002</v>
       </c>
       <c r="D9">
-        <v>22856</v>
+        <v>24253</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>90010</v>
+        <v>91105</v>
       </c>
       <c r="B10">
         <v>2009</v>
       </c>
       <c r="C10">
-        <v>154.48000000000002</v>
+        <v>184.73</v>
       </c>
       <c r="D10">
-        <v>2761</v>
+        <v>8616</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>90011</v>
+        <v>91020</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
       <c r="C11">
-        <v>89.84</v>
+        <v>184.66</v>
       </c>
       <c r="D11">
-        <v>54310</v>
+        <v>13507</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>90012</v>
+        <v>90403</v>
       </c>
       <c r="B12">
         <v>2009</v>
       </c>
       <c r="C12">
-        <v>120.56000000000002</v>
+        <v>182.71</v>
       </c>
       <c r="D12">
-        <v>21671</v>
+        <v>19942</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>90013</v>
+        <v>90024</v>
       </c>
       <c r="B13">
         <v>2009</v>
       </c>
       <c r="C13">
-        <v>136.72</v>
+        <v>182.57000000000002</v>
       </c>
       <c r="D13">
-        <v>7147</v>
+        <v>22988</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>90014</v>
+        <v>90212</v>
       </c>
       <c r="B14">
         <v>2009</v>
       </c>
       <c r="C14">
-        <v>126.23</v>
+        <v>181.86</v>
       </c>
       <c r="D14">
-        <v>4835</v>
+        <v>8601</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>90015</v>
+        <v>90292</v>
       </c>
       <c r="B15">
         <v>2009</v>
       </c>
       <c r="C15">
-        <v>111.75</v>
+        <v>181.59000000000003</v>
       </c>
       <c r="D15">
-        <v>11134</v>
+        <v>18398</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>90016</v>
+        <v>90254</v>
       </c>
       <c r="B16">
         <v>2009</v>
       </c>
       <c r="C16">
-        <v>119.97000000000001</v>
+        <v>181.47</v>
       </c>
       <c r="D16">
-        <v>29375</v>
+        <v>15065</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>90017</v>
+        <v>91302</v>
       </c>
       <c r="B17">
         <v>2009</v>
       </c>
       <c r="C17">
-        <v>106.42000000000002</v>
+        <v>180.01</v>
       </c>
       <c r="D17">
-        <v>13364</v>
+        <v>16896</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>90018</v>
+        <v>90275</v>
       </c>
       <c r="B18">
         <v>2009</v>
       </c>
       <c r="C18">
-        <v>114.01999999999998</v>
+        <v>179.72</v>
       </c>
       <c r="D18">
-        <v>30233</v>
+        <v>29841</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>90019</v>
+        <v>90405</v>
       </c>
       <c r="B19">
         <v>2009</v>
       </c>
       <c r="C19">
-        <v>134.70000000000002</v>
+        <v>178.13</v>
       </c>
       <c r="D19">
-        <v>44099</v>
+        <v>21562</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>90020</v>
+        <v>91436</v>
       </c>
       <c r="B20">
         <v>2009</v>
       </c>
       <c r="C20">
-        <v>144.58000000000001</v>
+        <v>177.86</v>
       </c>
       <c r="D20">
-        <v>28848</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>90021</v>
+        <v>90036</v>
       </c>
       <c r="B21">
         <v>2009</v>
       </c>
       <c r="C21">
-        <v>123.28000000000003</v>
+        <v>177.72</v>
       </c>
       <c r="D21">
-        <v>2263</v>
+        <v>27507</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>90022</v>
+        <v>90293</v>
       </c>
       <c r="B22">
         <v>2009</v>
       </c>
       <c r="C22">
-        <v>97.600000000000023</v>
+        <v>177.67</v>
       </c>
       <c r="D22">
-        <v>38805</v>
+        <v>10829</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>90023</v>
+        <v>90265</v>
       </c>
       <c r="B23">
         <v>2009</v>
       </c>
       <c r="C23">
-        <v>94.46</v>
+        <v>177.4</v>
       </c>
       <c r="D23">
-        <v>24945</v>
+        <v>12383</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>90024</v>
+        <v>91377</v>
       </c>
       <c r="B24">
         <v>2009</v>
       </c>
       <c r="C24">
-        <v>182.57000000000002</v>
+        <v>177.01</v>
       </c>
       <c r="D24">
-        <v>22988</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>90025</v>
+        <v>90068</v>
       </c>
       <c r="B25">
         <v>2009</v>
       </c>
       <c r="C25">
-        <v>173.62000000000003</v>
+        <v>175.45000000000002</v>
       </c>
       <c r="D25">
-        <v>32821</v>
+        <v>18221</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>90026</v>
+        <v>91210</v>
       </c>
       <c r="B26">
         <v>2009</v>
       </c>
       <c r="C26">
-        <v>133.17000000000002</v>
+        <v>175.16</v>
       </c>
       <c r="D26">
-        <v>47814</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>90027</v>
+        <v>90290</v>
       </c>
       <c r="B27">
         <v>2009</v>
       </c>
       <c r="C27">
-        <v>154.32</v>
+        <v>175.13000000000002</v>
       </c>
       <c r="D27">
-        <v>36218</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>90028</v>
+        <v>90048</v>
       </c>
       <c r="B28">
         <v>2009</v>
       </c>
       <c r="C28">
-        <v>146.85999999999999</v>
+        <v>174.49</v>
       </c>
       <c r="D28">
-        <v>20460</v>
+        <v>17295</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>90029</v>
+        <v>90804</v>
       </c>
       <c r="B29">
         <v>2009</v>
       </c>
       <c r="C29">
-        <v>123.81000000000002</v>
+        <v>174.03000000000003</v>
       </c>
       <c r="D29">
-        <v>26821</v>
+        <v>24341</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>90031</v>
+        <v>91361</v>
       </c>
       <c r="B30">
         <v>2009</v>
       </c>
       <c r="C30">
-        <v>106.87</v>
+        <v>173.89000000000001</v>
       </c>
       <c r="D30">
-        <v>24965</v>
+        <v>14422</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>90032</v>
+        <v>90025</v>
       </c>
       <c r="B31">
         <v>2009</v>
       </c>
       <c r="C31">
-        <v>114.94999999999999</v>
+        <v>173.62000000000003</v>
       </c>
       <c r="D31">
-        <v>28893</v>
+        <v>32821</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>90033</v>
+        <v>90064</v>
       </c>
       <c r="B32">
         <v>2009</v>
       </c>
       <c r="C32">
-        <v>99.12</v>
+        <v>173.24</v>
       </c>
       <c r="D32">
-        <v>26961</v>
+        <v>18511</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>90034</v>
+        <v>90210</v>
       </c>
       <c r="B33">
         <v>2009</v>
       </c>
       <c r="C33">
-        <v>160.5</v>
+        <v>172.85000000000002</v>
       </c>
       <c r="D33">
-        <v>43363</v>
+        <v>15739</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>90035</v>
+        <v>90056</v>
       </c>
       <c r="B34">
         <v>2009</v>
       </c>
       <c r="C34">
-        <v>169.17000000000004</v>
+        <v>172.64000000000001</v>
       </c>
       <c r="D34">
-        <v>22035</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>90036</v>
+        <v>91604</v>
       </c>
       <c r="B35">
         <v>2009</v>
       </c>
       <c r="C35">
-        <v>177.72</v>
+        <v>172.4</v>
       </c>
       <c r="D35">
-        <v>27507</v>
+        <v>21861</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>90037</v>
+        <v>90069</v>
       </c>
       <c r="B36">
         <v>2009</v>
       </c>
       <c r="C36">
-        <v>97.649999999999991</v>
+        <v>172.25</v>
       </c>
       <c r="D36">
-        <v>34017</v>
+        <v>18097</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>90038</v>
+        <v>91403</v>
       </c>
       <c r="B37">
         <v>2009</v>
       </c>
       <c r="C37">
-        <v>128.63999999999999</v>
+        <v>172.07</v>
       </c>
       <c r="D37">
-        <v>20441</v>
+        <v>18463</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>90039</v>
+        <v>90067</v>
       </c>
       <c r="B38">
         <v>2009</v>
       </c>
       <c r="C38">
-        <v>150.08000000000001</v>
+        <v>171.72000000000003</v>
       </c>
       <c r="D38">
-        <v>21373</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>90040</v>
+        <v>91711</v>
       </c>
       <c r="B39">
         <v>2009</v>
       </c>
       <c r="C39">
-        <v>102.65</v>
+        <v>171.70000000000002</v>
       </c>
       <c r="D39">
-        <v>7615</v>
+        <v>21974</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>90041</v>
+        <v>90277</v>
       </c>
       <c r="B40">
         <v>2009</v>
       </c>
       <c r="C40">
-        <v>147.70000000000002</v>
+        <v>170.85000000000002</v>
       </c>
       <c r="D40">
-        <v>19375</v>
+        <v>26741</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>90042</v>
+        <v>90291</v>
       </c>
       <c r="B41">
         <v>2009</v>
       </c>
       <c r="C41">
-        <v>128.26000000000002</v>
+        <v>170.09000000000003</v>
       </c>
       <c r="D41">
-        <v>42363</v>
+        <v>21340</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>90043</v>
+        <v>90401</v>
       </c>
       <c r="B42">
         <v>2009</v>
       </c>
       <c r="C42">
-        <v>133.71</v>
+        <v>170.01999999999998</v>
       </c>
       <c r="D42">
-        <v>28817</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>90044</v>
+        <v>91301</v>
       </c>
       <c r="B43">
         <v>2009</v>
       </c>
       <c r="C43">
-        <v>108.97000000000001</v>
+        <v>169.37</v>
       </c>
       <c r="D43">
-        <v>48342</v>
+        <v>17341</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>90045</v>
+        <v>90035</v>
       </c>
       <c r="B44">
         <v>2009</v>
       </c>
       <c r="C44">
-        <v>165.65</v>
+        <v>169.17000000000004</v>
       </c>
       <c r="D44">
-        <v>25852</v>
+        <v>22035</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>90046</v>
+        <v>90278</v>
       </c>
       <c r="B45">
         <v>2009</v>
       </c>
       <c r="C45">
-        <v>167.66000000000003</v>
+        <v>169.10000000000002</v>
       </c>
       <c r="D45">
-        <v>40849</v>
+        <v>28791</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>90047</v>
+        <v>91362</v>
       </c>
       <c r="B46">
         <v>2009</v>
       </c>
       <c r="C46">
-        <v>126.22000000000001</v>
+        <v>169.07999999999998</v>
       </c>
       <c r="D46">
-        <v>30200</v>
+        <v>23962</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>90048</v>
+        <v>91208</v>
       </c>
       <c r="B47">
         <v>2009</v>
       </c>
       <c r="C47">
-        <v>174.49</v>
+        <v>168.71</v>
       </c>
       <c r="D47">
-        <v>17295</v>
+        <v>10972</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>90049</v>
+        <v>91101</v>
       </c>
       <c r="B48">
         <v>2009</v>
       </c>
       <c r="C48">
-        <v>185.85000000000002</v>
+        <v>167.89000000000001</v>
       </c>
       <c r="D48">
-        <v>27929</v>
+        <v>15653</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>90056</v>
+        <v>91207</v>
       </c>
       <c r="B49">
         <v>2009</v>
       </c>
       <c r="C49">
-        <v>172.64000000000001</v>
+        <v>167.72000000000003</v>
       </c>
       <c r="D49">
-        <v>6156</v>
+        <v>7786</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>90057</v>
+        <v>90046</v>
       </c>
       <c r="B50">
         <v>2009</v>
       </c>
       <c r="C50">
-        <v>110.83</v>
+        <v>167.66000000000003</v>
       </c>
       <c r="D50">
-        <v>28475</v>
+        <v>40849</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>90058</v>
+        <v>91364</v>
       </c>
       <c r="B51">
         <v>2009</v>
       </c>
       <c r="C51">
-        <v>89.98</v>
+        <v>167.11</v>
       </c>
       <c r="D51">
-        <v>1756</v>
+        <v>18353</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>90059</v>
+        <v>91423</v>
       </c>
       <c r="B52">
         <v>2009</v>
       </c>
       <c r="C52">
-        <v>104.21000000000002</v>
+        <v>166.69000000000003</v>
       </c>
       <c r="D52">
-        <v>20081</v>
+        <v>23631</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>90061</v>
+        <v>91381</v>
       </c>
       <c r="B53">
         <v>2009</v>
       </c>
       <c r="C53">
-        <v>106.63</v>
+        <v>166.25000000000003</v>
       </c>
       <c r="D53">
-        <v>14699</v>
+        <v>11247</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>90062</v>
+        <v>91367</v>
       </c>
       <c r="B54">
         <v>2009</v>
       </c>
       <c r="C54">
-        <v>110.23</v>
+        <v>165.88</v>
       </c>
       <c r="D54">
-        <v>19059</v>
+        <v>28509</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>90063</v>
+        <v>90045</v>
       </c>
       <c r="B55">
         <v>2009</v>
       </c>
       <c r="C55">
-        <v>97.85</v>
+        <v>165.65</v>
       </c>
       <c r="D55">
-        <v>30630</v>
+        <v>25852</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>90064</v>
+        <v>91326</v>
       </c>
       <c r="B56">
         <v>2009</v>
       </c>
       <c r="C56">
-        <v>173.24</v>
+        <v>164.5</v>
       </c>
       <c r="D56">
-        <v>18511</v>
+        <v>24296</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>90065</v>
+        <v>91107</v>
       </c>
       <c r="B57">
         <v>2009</v>
       </c>
       <c r="C57">
-        <v>131.49</v>
+        <v>164.07000000000002</v>
       </c>
       <c r="D57">
-        <v>31227</v>
+        <v>23212</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>90066</v>
+        <v>90815</v>
       </c>
       <c r="B58">
         <v>2009</v>
       </c>
       <c r="C58">
-        <v>158.57</v>
+        <v>163.79000000000002</v>
       </c>
       <c r="D58">
-        <v>41335</v>
+        <v>13942</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>90067</v>
+        <v>91106</v>
       </c>
       <c r="B59">
         <v>2009</v>
       </c>
       <c r="C59">
-        <v>171.72000000000003</v>
+        <v>163.70000000000002</v>
       </c>
       <c r="D59">
-        <v>2185</v>
+        <v>17621</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>90068</v>
+        <v>90245</v>
       </c>
       <c r="B60">
         <v>2009</v>
       </c>
       <c r="C60">
-        <v>175.45000000000002</v>
+        <v>163.35</v>
       </c>
       <c r="D60">
-        <v>18221</v>
+        <v>11776</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>90069</v>
+        <v>90505</v>
       </c>
       <c r="B61">
         <v>2009</v>
       </c>
       <c r="C61">
-        <v>172.25</v>
+        <v>162.98000000000002</v>
       </c>
       <c r="D61">
-        <v>18097</v>
+        <v>25486</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>90073</v>
+        <v>91214</v>
       </c>
       <c r="B62">
         <v>2009</v>
       </c>
       <c r="C62">
-        <v>119.37</v>
+        <v>162.87</v>
       </c>
       <c r="D62">
-        <v>523</v>
+        <v>20908</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>90077</v>
+        <v>91316</v>
       </c>
       <c r="B63">
         <v>2009</v>
       </c>
       <c r="C63">
-        <v>188.81</v>
+        <v>162.42000000000002</v>
       </c>
       <c r="D63">
-        <v>6128</v>
+        <v>20217</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>90089</v>
+        <v>91765</v>
       </c>
       <c r="B64">
         <v>2009</v>
+      </c>
+      <c r="C64">
+        <v>162.37</v>
+      </c>
+      <c r="D64">
+        <v>32745</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>90094</v>
+        <v>91602</v>
       </c>
       <c r="B65">
         <v>2009</v>
       </c>
       <c r="C65">
-        <v>156.48000000000002</v>
+        <v>161.96</v>
       </c>
       <c r="D65">
-        <v>215</v>
+        <v>14190</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>90201</v>
+        <v>90211</v>
       </c>
       <c r="B66">
         <v>2009</v>
       </c>
       <c r="C66">
-        <v>94.110000000000014</v>
+        <v>161.74</v>
       </c>
       <c r="D66">
-        <v>54705</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>90210</v>
+        <v>91010</v>
       </c>
       <c r="B67">
         <v>2009</v>
       </c>
       <c r="C67">
-        <v>172.85000000000002</v>
+        <v>161.73000000000002</v>
       </c>
       <c r="D67">
-        <v>15739</v>
+        <v>23842</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>90211</v>
+        <v>90232</v>
       </c>
       <c r="B68">
         <v>2009</v>
       </c>
       <c r="C68">
-        <v>161.74</v>
+        <v>161.59000000000003</v>
       </c>
       <c r="D68">
-        <v>5548</v>
+        <v>11157</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>90212</v>
+        <v>90503</v>
       </c>
       <c r="B69">
         <v>2009</v>
       </c>
       <c r="C69">
-        <v>181.86</v>
+        <v>161.25</v>
       </c>
       <c r="D69">
-        <v>8601</v>
+        <v>32774</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>90220</v>
+        <v>91008</v>
       </c>
       <c r="B70">
         <v>2009</v>
       </c>
       <c r="C70">
-        <v>111.72000000000001</v>
+        <v>160.85000000000002</v>
       </c>
       <c r="D70">
-        <v>27586</v>
+        <v>22474</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>90221</v>
+        <v>90404</v>
       </c>
       <c r="B71">
         <v>2009</v>
       </c>
       <c r="C71">
-        <v>100.94</v>
+        <v>160.51</v>
       </c>
       <c r="D71">
-        <v>27256</v>
+        <v>15316</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>90222</v>
+        <v>90034</v>
       </c>
       <c r="B72">
         <v>2009</v>
       </c>
       <c r="C72">
-        <v>106.22000000000001</v>
+        <v>160.5</v>
       </c>
       <c r="D72">
-        <v>16661</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>90230</v>
+        <v>91030</v>
       </c>
       <c r="B73">
         <v>2009</v>
       </c>
       <c r="C73">
-        <v>156.43</v>
+        <v>160.49</v>
       </c>
       <c r="D73">
-        <v>22717</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>90232</v>
+        <v>90703</v>
       </c>
       <c r="B74">
         <v>2009</v>
       </c>
       <c r="C74">
-        <v>161.59000000000003</v>
+        <v>160.31000000000003</v>
       </c>
       <c r="D74">
-        <v>11157</v>
+        <v>34326</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>90240</v>
+        <v>91789</v>
       </c>
       <c r="B75">
         <v>2009</v>
       </c>
       <c r="C75">
-        <v>134.22</v>
+        <v>160.13</v>
       </c>
       <c r="D75">
-        <v>16718</v>
+        <v>28650</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>90241</v>
+        <v>91307</v>
       </c>
       <c r="B76">
         <v>2009</v>
       </c>
       <c r="C76">
-        <v>126.77000000000001</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="D76">
-        <v>27406</v>
+        <v>17138</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>90242</v>
+        <v>91354</v>
       </c>
       <c r="B77">
         <v>2009</v>
       </c>
       <c r="C77">
-        <v>124.98</v>
+        <v>159.41000000000003</v>
       </c>
       <c r="D77">
-        <v>25809</v>
+        <v>17942</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>90245</v>
+        <v>90822</v>
       </c>
       <c r="B78">
         <v>2009</v>
       </c>
       <c r="C78">
-        <v>163.35</v>
+        <v>159.34</v>
       </c>
       <c r="D78">
-        <v>11776</v>
+        <v>26441</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>90247</v>
+        <v>90066</v>
       </c>
       <c r="B79">
         <v>2009</v>
       </c>
       <c r="C79">
-        <v>128.51</v>
+        <v>158.57</v>
       </c>
       <c r="D79">
-        <v>30602</v>
+        <v>41335</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>90248</v>
+        <v>93550</v>
       </c>
       <c r="B80">
         <v>2009</v>
       </c>
       <c r="C80">
-        <v>130.78</v>
+        <v>158.29000000000002</v>
       </c>
       <c r="D80">
-        <v>7383</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>90249</v>
+        <v>93551</v>
       </c>
       <c r="B81">
         <v>2009</v>
       </c>
       <c r="C81">
-        <v>133.95000000000002</v>
+        <v>157.60000000000002</v>
       </c>
       <c r="D81">
-        <v>17858</v>
+        <v>13804</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>90250</v>
+        <v>91356</v>
       </c>
       <c r="B82">
         <v>2009</v>
       </c>
       <c r="C82">
-        <v>126.38999999999999</v>
+        <v>157.33000000000004</v>
       </c>
       <c r="D82">
-        <v>57070</v>
+        <v>21668</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>90254</v>
+        <v>91011</v>
       </c>
       <c r="B83">
         <v>2009</v>
       </c>
       <c r="C83">
-        <v>181.47</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="D83">
-        <v>15065</v>
+        <v>955</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>90255</v>
+        <v>91607</v>
       </c>
       <c r="B84">
         <v>2009</v>
       </c>
       <c r="C84">
-        <v>97.54</v>
+        <v>156.95000000000002</v>
       </c>
       <c r="D84">
-        <v>42609</v>
+        <v>21657</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>90260</v>
+        <v>91330</v>
       </c>
       <c r="B85">
         <v>2009</v>
       </c>
       <c r="C85">
-        <v>125.96999999999998</v>
+        <v>156.86000000000001</v>
       </c>
       <c r="D85">
-        <v>20764</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>90262</v>
+        <v>90094</v>
       </c>
       <c r="B86">
         <v>2009</v>
       </c>
       <c r="C86">
-        <v>100.31</v>
+        <v>156.48000000000002</v>
       </c>
       <c r="D86">
-        <v>37901</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>90263</v>
+        <v>90230</v>
       </c>
       <c r="B87">
         <v>2009</v>
       </c>
       <c r="C87">
-        <v>225.05</v>
+        <v>156.43</v>
       </c>
       <c r="D87">
-        <v>148</v>
+        <v>22717</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>90265</v>
+        <v>91355</v>
       </c>
       <c r="B88">
         <v>2009</v>
       </c>
       <c r="C88">
-        <v>177.4</v>
+        <v>156.26</v>
       </c>
       <c r="D88">
-        <v>12383</v>
+        <v>21362</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>90266</v>
+        <v>90810</v>
       </c>
       <c r="B89">
         <v>2009</v>
       </c>
       <c r="C89">
-        <v>185.23000000000002</v>
+        <v>156.11000000000001</v>
       </c>
       <c r="D89">
-        <v>24253</v>
+        <v>27440</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>90270</v>
+        <v>91007</v>
       </c>
       <c r="B90">
         <v>2009</v>
       </c>
       <c r="C90">
-        <v>90.51</v>
+        <v>154.99</v>
       </c>
       <c r="D90">
-        <v>14667</v>
+        <v>26172</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90272</v>
+        <v>90010</v>
       </c>
       <c r="B91">
         <v>2009</v>
       </c>
       <c r="C91">
-        <v>189.04000000000002</v>
+        <v>154.48000000000002</v>
       </c>
       <c r="D91">
-        <v>16370</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>90274</v>
+        <v>90027</v>
       </c>
       <c r="B92">
         <v>2009</v>
       </c>
       <c r="C92">
-        <v>185.76</v>
+        <v>154.32</v>
       </c>
       <c r="D92">
-        <v>18326</v>
+        <v>36218</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>90275</v>
+        <v>90742</v>
       </c>
       <c r="B93">
         <v>2009</v>
       </c>
       <c r="C93">
-        <v>179.72</v>
+        <v>154.29000000000002</v>
       </c>
       <c r="D93">
-        <v>29841</v>
+        <v>925</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>90277</v>
+        <v>91741</v>
       </c>
       <c r="B94">
         <v>2009</v>
       </c>
       <c r="C94">
-        <v>170.85000000000002</v>
+        <v>154.21</v>
       </c>
       <c r="D94">
-        <v>26741</v>
+        <v>16503</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>90278</v>
+        <v>91775</v>
       </c>
       <c r="B95">
         <v>2009</v>
       </c>
       <c r="C95">
-        <v>169.10000000000002</v>
+        <v>154.09</v>
       </c>
       <c r="D95">
-        <v>28791</v>
+        <v>17240</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>90280</v>
+        <v>91202</v>
       </c>
       <c r="B96">
         <v>2009</v>
       </c>
       <c r="C96">
-        <v>101.33</v>
+        <v>153.45000000000002</v>
       </c>
       <c r="D96">
-        <v>53813</v>
+        <v>16813</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>90290</v>
+        <v>91390</v>
       </c>
       <c r="B97">
         <v>2009</v>
       </c>
       <c r="C97">
-        <v>175.13000000000002</v>
+        <v>152.84</v>
       </c>
       <c r="D97">
-        <v>4893</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>90291</v>
+        <v>93532</v>
       </c>
       <c r="B98">
         <v>2009</v>
       </c>
       <c r="C98">
-        <v>170.09000000000003</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="D98">
-        <v>21340</v>
+        <v>12339</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>90292</v>
+        <v>90808</v>
       </c>
       <c r="B99">
         <v>2009</v>
       </c>
       <c r="C99">
-        <v>181.59000000000003</v>
+        <v>152.35</v>
       </c>
       <c r="D99">
-        <v>18398</v>
+        <v>22113</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>90293</v>
+        <v>91311</v>
       </c>
       <c r="B100">
         <v>2009</v>
       </c>
       <c r="C100">
-        <v>177.67</v>
+        <v>152.27000000000001</v>
       </c>
       <c r="D100">
-        <v>10829</v>
+        <v>26966</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>90301</v>
+        <v>91505</v>
       </c>
       <c r="B101">
         <v>2009</v>
       </c>
       <c r="C101">
-        <v>118.62</v>
+        <v>152.16</v>
       </c>
       <c r="D101">
-        <v>22884</v>
+        <v>21102</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>90302</v>
+        <v>90732</v>
       </c>
       <c r="B102">
         <v>2009</v>
       </c>
       <c r="C102">
-        <v>129.28</v>
+        <v>152.03000000000003</v>
       </c>
       <c r="D102">
-        <v>18761</v>
+        <v>15323</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>90303</v>
+        <v>91206</v>
       </c>
       <c r="B103">
         <v>2009</v>
       </c>
       <c r="C103">
-        <v>113.12</v>
+        <v>151.97</v>
       </c>
       <c r="D103">
-        <v>15119</v>
+        <v>24576</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>90304</v>
+        <v>90802</v>
       </c>
       <c r="B104">
         <v>2009</v>
       </c>
       <c r="C104">
-        <v>99.4</v>
+        <v>151.29000000000005</v>
       </c>
       <c r="D104">
-        <v>15060</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>90305</v>
+        <v>91506</v>
       </c>
       <c r="B105">
         <v>2009</v>
       </c>
       <c r="C105">
-        <v>150.10999999999999</v>
+        <v>151.00000000000003</v>
       </c>
       <c r="D105">
-        <v>10116</v>
+        <v>13626</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>90401</v>
+        <v>93544</v>
       </c>
       <c r="B106">
         <v>2009</v>
       </c>
       <c r="C106">
-        <v>170.01999999999998</v>
+        <v>150.87999999999997</v>
       </c>
       <c r="D106">
-        <v>5730</v>
+        <v>24150</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>90402</v>
+        <v>91350</v>
       </c>
       <c r="B107">
         <v>2009</v>
       </c>
       <c r="C107">
-        <v>192.99</v>
+        <v>150.59</v>
       </c>
       <c r="D107">
-        <v>9582</v>
+        <v>20429</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>90403</v>
+        <v>91325</v>
       </c>
       <c r="B108">
         <v>2009</v>
       </c>
       <c r="C108">
-        <v>182.71</v>
+        <v>150.34</v>
       </c>
       <c r="D108">
-        <v>19942</v>
+        <v>20918</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>90404</v>
+        <v>90305</v>
       </c>
       <c r="B109">
         <v>2009</v>
       </c>
       <c r="C109">
-        <v>160.51</v>
+        <v>150.10999999999999</v>
       </c>
       <c r="D109">
-        <v>15316</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>90405</v>
+        <v>90039</v>
       </c>
       <c r="B110">
         <v>2009</v>
       </c>
       <c r="C110">
-        <v>178.13</v>
+        <v>150.08000000000001</v>
       </c>
       <c r="D110">
-        <v>21562</v>
+        <v>21373</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>90501</v>
+        <v>91750</v>
       </c>
       <c r="B111">
         <v>2009</v>
       </c>
       <c r="C111">
-        <v>139.81000000000003</v>
+        <v>149.88999999999999</v>
       </c>
       <c r="D111">
-        <v>26807</v>
+        <v>22635</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>90502</v>
+        <v>91773</v>
       </c>
       <c r="B112">
         <v>2009</v>
       </c>
       <c r="C112">
-        <v>138.1</v>
+        <v>149.85000000000002</v>
       </c>
       <c r="D112">
-        <v>12133</v>
+        <v>23089</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>90503</v>
+        <v>91501</v>
       </c>
       <c r="B113">
         <v>2009</v>
       </c>
       <c r="C113">
-        <v>161.25</v>
+        <v>148.37</v>
       </c>
       <c r="D113">
-        <v>32774</v>
+        <v>15278</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>90504</v>
+        <v>91344</v>
       </c>
       <c r="B114">
         <v>2009</v>
       </c>
       <c r="C114">
-        <v>146.4</v>
+        <v>147.76000000000002</v>
       </c>
       <c r="D114">
-        <v>22260</v>
+        <v>36603</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>90505</v>
+        <v>90041</v>
       </c>
       <c r="B115">
         <v>2009</v>
       </c>
       <c r="C115">
-        <v>162.98000000000002</v>
+        <v>147.70000000000002</v>
       </c>
       <c r="D115">
-        <v>25486</v>
+        <v>19375</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>90601</v>
+        <v>91324</v>
       </c>
       <c r="B116">
         <v>2009</v>
       </c>
       <c r="C116">
-        <v>138.31000000000003</v>
+        <v>147.42000000000004</v>
       </c>
       <c r="D116">
-        <v>21680</v>
+        <v>16854</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>90602</v>
+        <v>91780</v>
       </c>
       <c r="B117">
         <v>2009</v>
       </c>
       <c r="C117">
-        <v>127.66</v>
+        <v>147.01000000000002</v>
       </c>
       <c r="D117">
-        <v>14889</v>
+        <v>23902</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>90603</v>
+        <v>90028</v>
       </c>
       <c r="B118">
         <v>2009</v>
       </c>
       <c r="C118">
-        <v>146.80000000000001</v>
+        <v>146.85999999999999</v>
       </c>
       <c r="D118">
-        <v>12663</v>
+        <v>20460</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>90604</v>
+        <v>90603</v>
       </c>
       <c r="B119">
         <v>2009</v>
       </c>
       <c r="C119">
-        <v>128.99</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="D119">
-        <v>25145</v>
+        <v>12663</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>90605</v>
+        <v>91504</v>
       </c>
       <c r="B120">
         <v>2009</v>
       </c>
       <c r="C120">
-        <v>123.08999999999999</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="D120">
-        <v>24736</v>
+        <v>18197</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>90606</v>
+        <v>90504</v>
       </c>
       <c r="B121">
         <v>2009</v>
       </c>
       <c r="C121">
-        <v>116.45000000000003</v>
+        <v>146.4</v>
       </c>
       <c r="D121">
-        <v>20905</v>
+        <v>22260</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>90631</v>
+        <v>91748</v>
       </c>
       <c r="B122">
         <v>2009</v>
       </c>
       <c r="C122">
-        <v>135.5</v>
+        <v>145.35999999999999</v>
       </c>
       <c r="D122">
-        <v>42638</v>
+        <v>32742</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>90638</v>
+        <v>91387</v>
       </c>
       <c r="B123">
         <v>2009</v>
       </c>
       <c r="C123">
-        <v>142.12000000000003</v>
+        <v>145.25</v>
       </c>
       <c r="D123">
-        <v>30771</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>90640</v>
+        <v>90803</v>
       </c>
       <c r="B124">
         <v>2009</v>
       </c>
       <c r="C124">
-        <v>123.76000000000002</v>
+        <v>145.18000000000004</v>
       </c>
       <c r="D124">
-        <v>41126</v>
+        <v>28253</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>90650</v>
+        <v>90712</v>
       </c>
       <c r="B125">
         <v>2009</v>
       </c>
       <c r="C125">
-        <v>122.48000000000002</v>
+        <v>144.81000000000003</v>
       </c>
       <c r="D125">
-        <v>64907</v>
+        <v>20616</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>90660</v>
+        <v>91001</v>
       </c>
       <c r="B126">
         <v>2009</v>
       </c>
       <c r="C126">
-        <v>114.9</v>
+        <v>144.62</v>
       </c>
       <c r="D126">
-        <v>39514</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>90670</v>
+        <v>91024</v>
       </c>
       <c r="B127">
         <v>2009</v>
       </c>
       <c r="C127">
-        <v>118.51000000000002</v>
+        <v>144.6</v>
       </c>
       <c r="D127">
-        <v>9467</v>
+        <v>27947</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>90701</v>
+        <v>90020</v>
       </c>
       <c r="B128">
         <v>2009</v>
       </c>
       <c r="C128">
-        <v>129.87</v>
+        <v>144.58000000000001</v>
       </c>
       <c r="D128">
-        <v>10996</v>
+        <v>28848</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>90703</v>
+        <v>90713</v>
       </c>
       <c r="B129">
         <v>2009</v>
       </c>
       <c r="C129">
-        <v>160.31000000000003</v>
+        <v>144.23000000000002</v>
       </c>
       <c r="D129">
-        <v>34326</v>
+        <v>18438</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>90704</v>
+        <v>91104</v>
       </c>
       <c r="B130">
         <v>2009</v>
       </c>
       <c r="C130">
-        <v>126.67999999999998</v>
+        <v>144.03</v>
       </c>
       <c r="D130">
-        <v>2774</v>
+        <v>26102</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>90706</v>
+        <v>91792</v>
       </c>
       <c r="B131">
         <v>2009</v>
       </c>
       <c r="C131">
-        <v>127.25</v>
+        <v>144.01999999999998</v>
       </c>
       <c r="D131">
-        <v>45674</v>
+        <v>20027</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>90710</v>
+        <v>91745</v>
       </c>
       <c r="B132">
         <v>2009</v>
       </c>
       <c r="C132">
-        <v>133.08000000000001</v>
+        <v>143.72</v>
       </c>
       <c r="D132">
-        <v>17862</v>
+        <v>38330</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>90712</v>
+        <v>91601</v>
       </c>
       <c r="B133">
         <v>2009</v>
       </c>
       <c r="C133">
-        <v>144.81000000000003</v>
+        <v>143.5</v>
       </c>
       <c r="D133">
-        <v>20616</v>
+        <v>24730</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>90713</v>
+        <v>90746</v>
       </c>
       <c r="B134">
         <v>2009</v>
       </c>
       <c r="C134">
-        <v>144.23000000000002</v>
+        <v>143.05000000000001</v>
       </c>
       <c r="D134">
-        <v>18438</v>
+        <v>17848</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>90715</v>
+        <v>93510</v>
       </c>
       <c r="B135">
         <v>2009</v>
       </c>
       <c r="C135">
-        <v>135.15</v>
+        <v>143.01000000000002</v>
       </c>
       <c r="D135">
-        <v>13092</v>
+        <v>11556</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>90716</v>
+        <v>91791</v>
       </c>
       <c r="B136">
         <v>2009</v>
       </c>
       <c r="C136">
-        <v>106.75000000000003</v>
+        <v>142.54</v>
       </c>
       <c r="D136">
-        <v>8192</v>
+        <v>20906</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>90717</v>
+        <v>93552</v>
       </c>
       <c r="B137">
         <v>2009</v>
       </c>
       <c r="C137">
-        <v>140.01</v>
+        <v>142.35000000000002</v>
       </c>
       <c r="D137">
-        <v>14521</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>90723</v>
+        <v>91724</v>
       </c>
       <c r="B138">
         <v>2009</v>
       </c>
       <c r="C138">
-        <v>107.44000000000001</v>
+        <v>142.20000000000002</v>
       </c>
       <c r="D138">
-        <v>30026</v>
+        <v>15933</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>90731</v>
+        <v>90638</v>
       </c>
       <c r="B139">
         <v>2009</v>
       </c>
       <c r="C139">
-        <v>129.72</v>
+        <v>142.12000000000003</v>
       </c>
       <c r="D139">
-        <v>39035</v>
+        <v>30771</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>90732</v>
+        <v>91040</v>
       </c>
       <c r="B140">
         <v>2009</v>
       </c>
       <c r="C140">
-        <v>152.03000000000003</v>
+        <v>141.82000000000002</v>
       </c>
       <c r="D140">
-        <v>15323</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>90742</v>
+        <v>91801</v>
       </c>
       <c r="B141">
         <v>2009</v>
       </c>
       <c r="C141">
-        <v>154.29000000000002</v>
+        <v>140.94000000000003</v>
       </c>
       <c r="D141">
-        <v>925</v>
+        <v>38712</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>90744</v>
+        <v>91042</v>
       </c>
       <c r="B142">
         <v>2009</v>
       </c>
       <c r="C142">
-        <v>105.16</v>
+        <v>140.29000000000002</v>
       </c>
       <c r="D142">
-        <v>30796</v>
+        <v>19818</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>90745</v>
+        <v>90717</v>
       </c>
       <c r="B143">
         <v>2009</v>
       </c>
       <c r="C143">
-        <v>132.73999999999998</v>
+        <v>140.01</v>
       </c>
       <c r="D143">
-        <v>37244</v>
+        <v>14521</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>90746</v>
+        <v>90501</v>
       </c>
       <c r="B144">
         <v>2009</v>
       </c>
       <c r="C144">
-        <v>143.05000000000001</v>
+        <v>139.81000000000003</v>
       </c>
       <c r="D144">
-        <v>17848</v>
+        <v>26807</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>90755</v>
+        <v>90008</v>
       </c>
       <c r="B145">
         <v>2009</v>
+      </c>
+      <c r="C145">
+        <v>138.64000000000001</v>
+      </c>
+      <c r="D145">
+        <v>22856</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>90802</v>
+        <v>90601</v>
       </c>
       <c r="B146">
         <v>2009</v>
       </c>
       <c r="C146">
-        <v>151.29000000000005</v>
+        <v>138.31000000000003</v>
       </c>
       <c r="D146">
-        <v>7499</v>
+        <v>21680</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>90803</v>
+        <v>91205</v>
       </c>
       <c r="B147">
         <v>2009</v>
       </c>
       <c r="C147">
-        <v>145.18000000000004</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="D147">
-        <v>28253</v>
+        <v>27245</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>90804</v>
+        <v>90502</v>
       </c>
       <c r="B148">
         <v>2009</v>
       </c>
       <c r="C148">
-        <v>174.03000000000003</v>
+        <v>138.1</v>
       </c>
       <c r="D148">
-        <v>24341</v>
+        <v>12133</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>90805</v>
+        <v>91203</v>
       </c>
       <c r="B149">
         <v>2009</v>
       </c>
       <c r="C149">
-        <v>132.04999999999998</v>
+        <v>138.06000000000003</v>
       </c>
       <c r="D149">
-        <v>24150</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>90806</v>
+        <v>93536</v>
       </c>
       <c r="B150">
         <v>2009</v>
       </c>
       <c r="C150">
-        <v>118.25999999999999</v>
+        <v>137.82000000000002</v>
       </c>
       <c r="D150">
-        <v>51861</v>
+        <v>46851</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>90807</v>
+        <v>91723</v>
       </c>
       <c r="B151">
         <v>2009</v>
       </c>
       <c r="C151">
-        <v>122.61999999999999</v>
+        <v>137.23999999999998</v>
       </c>
       <c r="D151">
-        <v>24014</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>90808</v>
+        <v>91740</v>
       </c>
       <c r="B152">
         <v>2009</v>
       </c>
       <c r="C152">
-        <v>152.35</v>
+        <v>137.04000000000002</v>
       </c>
       <c r="D152">
-        <v>22113</v>
+        <v>16659</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>90810</v>
+        <v>91201</v>
       </c>
       <c r="B153">
         <v>2009</v>
       </c>
       <c r="C153">
-        <v>156.11000000000001</v>
+        <v>136.88999999999999</v>
       </c>
       <c r="D153">
-        <v>27440</v>
+        <v>17206</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>90813</v>
+        <v>91754</v>
       </c>
       <c r="B154">
         <v>2009</v>
       </c>
       <c r="C154">
-        <v>121</v>
+        <v>136.88000000000002</v>
       </c>
       <c r="D154">
-        <v>21858</v>
+        <v>23059</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>90814</v>
+        <v>91351</v>
       </c>
       <c r="B155">
         <v>2009</v>
       </c>
       <c r="C155">
-        <v>106.95</v>
+        <v>136.84</v>
       </c>
       <c r="D155">
-        <v>30767</v>
+        <v>19863</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>90815</v>
+        <v>91384</v>
       </c>
       <c r="B156">
         <v>2009</v>
       </c>
       <c r="C156">
-        <v>163.79000000000002</v>
+        <v>136.81</v>
       </c>
       <c r="D156">
-        <v>13942</v>
+        <v>18042</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>90822</v>
+        <v>90013</v>
       </c>
       <c r="B157">
         <v>2009</v>
       </c>
       <c r="C157">
-        <v>159.34</v>
+        <v>136.72</v>
       </c>
       <c r="D157">
-        <v>26441</v>
+        <v>7147</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>91001</v>
+        <v>91304</v>
       </c>
       <c r="B158">
         <v>2009</v>
       </c>
       <c r="C158">
-        <v>144.62</v>
+        <v>136.42000000000002</v>
       </c>
       <c r="D158">
-        <v>29</v>
+        <v>34284</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>91006</v>
+        <v>90631</v>
       </c>
       <c r="B159">
         <v>2009</v>
+      </c>
+      <c r="C159">
+        <v>135.5</v>
+      </c>
+      <c r="D159">
+        <v>42638</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>91007</v>
+        <v>91401</v>
       </c>
       <c r="B160">
         <v>2009</v>
       </c>
       <c r="C160">
-        <v>154.99</v>
+        <v>135.16</v>
       </c>
       <c r="D160">
-        <v>26172</v>
+        <v>26689</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>91008</v>
+        <v>90715</v>
       </c>
       <c r="B161">
         <v>2009</v>
       </c>
       <c r="C161">
-        <v>160.85000000000002</v>
+        <v>135.15</v>
       </c>
       <c r="D161">
-        <v>22474</v>
+        <v>13092</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>91010</v>
+        <v>93535</v>
       </c>
       <c r="B162">
         <v>2009</v>
       </c>
       <c r="C162">
-        <v>161.73000000000002</v>
+        <v>134.9</v>
       </c>
       <c r="D162">
-        <v>23842</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>91011</v>
+        <v>90019</v>
       </c>
       <c r="B163">
         <v>2009</v>
       </c>
       <c r="C163">
-        <v>157.11000000000001</v>
+        <v>134.70000000000002</v>
       </c>
       <c r="D163">
-        <v>955</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>91016</v>
+        <v>91803</v>
       </c>
       <c r="B164">
         <v>2009</v>
       </c>
       <c r="C164">
-        <v>131.83000000000001</v>
+        <v>134.65000000000003</v>
       </c>
       <c r="D164">
-        <v>16946</v>
+        <v>21892</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>91020</v>
+        <v>91502</v>
       </c>
       <c r="B165">
         <v>2009</v>
       </c>
       <c r="C165">
-        <v>184.66</v>
+        <v>134.5</v>
       </c>
       <c r="D165">
-        <v>13507</v>
+        <v>8353</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>91024</v>
+        <v>90240</v>
       </c>
       <c r="B166">
         <v>2009</v>
       </c>
       <c r="C166">
-        <v>144.6</v>
+        <v>134.22</v>
       </c>
       <c r="D166">
-        <v>27947</v>
+        <v>16718</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>91030</v>
+        <v>90249</v>
       </c>
       <c r="B167">
         <v>2009</v>
       </c>
       <c r="C167">
-        <v>160.49</v>
+        <v>133.95000000000002</v>
       </c>
       <c r="D167">
-        <v>5963</v>
+        <v>17858</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>91040</v>
+        <v>91204</v>
       </c>
       <c r="B168">
         <v>2009</v>
       </c>
       <c r="C168">
-        <v>141.82000000000002</v>
+        <v>133.89000000000001</v>
       </c>
       <c r="D168">
-        <v>14500</v>
+        <v>11204</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>91042</v>
+        <v>90043</v>
       </c>
       <c r="B169">
         <v>2009</v>
       </c>
       <c r="C169">
-        <v>140.29000000000002</v>
+        <v>133.71</v>
       </c>
       <c r="D169">
-        <v>19818</v>
+        <v>28817</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>91101</v>
+        <v>90026</v>
       </c>
       <c r="B170">
         <v>2009</v>
       </c>
       <c r="C170">
-        <v>167.89000000000001</v>
+        <v>133.17000000000002</v>
       </c>
       <c r="D170">
-        <v>15653</v>
+        <v>47814</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>91103</v>
+        <v>90710</v>
       </c>
       <c r="B171">
         <v>2009</v>
       </c>
       <c r="C171">
-        <v>132.1</v>
+        <v>133.08000000000001</v>
       </c>
       <c r="D171">
-        <v>18490</v>
+        <v>17862</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>91104</v>
+        <v>90745</v>
       </c>
       <c r="B172">
         <v>2009</v>
       </c>
       <c r="C172">
-        <v>144.03</v>
+        <v>132.73999999999998</v>
       </c>
       <c r="D172">
-        <v>26102</v>
+        <v>37244</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>91105</v>
+        <v>91411</v>
       </c>
       <c r="B173">
         <v>2009</v>
       </c>
       <c r="C173">
-        <v>184.73</v>
+        <v>132.34</v>
       </c>
       <c r="D173">
-        <v>8616</v>
+        <v>16271</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>91106</v>
+        <v>90004</v>
       </c>
       <c r="B174">
         <v>2009</v>
       </c>
       <c r="C174">
-        <v>163.70000000000002</v>
+        <v>132.26000000000002</v>
       </c>
       <c r="D174">
-        <v>17621</v>
+        <v>43639</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>91107</v>
+        <v>91776</v>
       </c>
       <c r="B175">
         <v>2009</v>
       </c>
       <c r="C175">
-        <v>164.07000000000002</v>
+        <v>132.13999999999999</v>
       </c>
       <c r="D175">
-        <v>23212</v>
+        <v>27101</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>91108</v>
+        <v>91103</v>
       </c>
       <c r="B176">
         <v>2009</v>
       </c>
       <c r="C176">
-        <v>187.88</v>
+        <v>132.1</v>
       </c>
       <c r="D176">
-        <v>9411</v>
+        <v>18490</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>91201</v>
+        <v>90805</v>
       </c>
       <c r="B177">
         <v>2009</v>
       </c>
       <c r="C177">
-        <v>136.88999999999999</v>
+        <v>132.04999999999998</v>
       </c>
       <c r="D177">
-        <v>17206</v>
+        <v>24150</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>91202</v>
+        <v>91016</v>
       </c>
       <c r="B178">
         <v>2009</v>
       </c>
       <c r="C178">
-        <v>153.45000000000002</v>
+        <v>131.83000000000001</v>
       </c>
       <c r="D178">
-        <v>16813</v>
+        <v>16946</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>91203</v>
+        <v>90065</v>
       </c>
       <c r="B179">
         <v>2009</v>
       </c>
       <c r="C179">
-        <v>138.06000000000003</v>
+        <v>131.49</v>
       </c>
       <c r="D179">
-        <v>9226</v>
+        <v>31227</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>91204</v>
+        <v>91306</v>
       </c>
       <c r="B180">
         <v>2009</v>
       </c>
       <c r="C180">
-        <v>133.89000000000001</v>
+        <v>130.81000000000003</v>
       </c>
       <c r="D180">
-        <v>11204</v>
+        <v>30427</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>91205</v>
+        <v>90248</v>
       </c>
       <c r="B181">
         <v>2009</v>
       </c>
       <c r="C181">
-        <v>138.19999999999999</v>
+        <v>130.78</v>
       </c>
       <c r="D181">
-        <v>27245</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>91206</v>
+        <v>91321</v>
       </c>
       <c r="B182">
         <v>2009</v>
       </c>
       <c r="C182">
-        <v>151.97</v>
+        <v>130.69000000000003</v>
       </c>
       <c r="D182">
-        <v>24576</v>
+        <v>21873</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>91207</v>
+        <v>91755</v>
       </c>
       <c r="B183">
         <v>2009</v>
       </c>
       <c r="C183">
-        <v>167.72000000000003</v>
+        <v>130.6</v>
       </c>
       <c r="D183">
-        <v>7786</v>
+        <v>20146</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>91208</v>
+        <v>91406</v>
       </c>
       <c r="B184">
         <v>2009</v>
       </c>
       <c r="C184">
-        <v>168.71</v>
+        <v>130.12000000000003</v>
       </c>
       <c r="D184">
-        <v>10972</v>
+        <v>34274</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>91210</v>
+        <v>91790</v>
       </c>
       <c r="B185">
         <v>2009</v>
       </c>
       <c r="C185">
-        <v>175.16</v>
+        <v>130.04000000000002</v>
       </c>
       <c r="D185">
-        <v>146</v>
+        <v>27867</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>91214</v>
+        <v>90701</v>
       </c>
       <c r="B186">
         <v>2009</v>
       </c>
       <c r="C186">
-        <v>162.87</v>
+        <v>129.87</v>
       </c>
       <c r="D186">
-        <v>20908</v>
+        <v>10996</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>91301</v>
+        <v>90731</v>
       </c>
       <c r="B187">
         <v>2009</v>
       </c>
       <c r="C187">
-        <v>169.37</v>
+        <v>129.72</v>
       </c>
       <c r="D187">
-        <v>17341</v>
+        <v>39035</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>91302</v>
+        <v>91335</v>
       </c>
       <c r="B188">
         <v>2009</v>
       </c>
       <c r="C188">
-        <v>180.01</v>
+        <v>129.31</v>
       </c>
       <c r="D188">
-        <v>16896</v>
+        <v>48025</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>91303</v>
+        <v>90302</v>
       </c>
       <c r="B189">
         <v>2009</v>
       </c>
       <c r="C189">
-        <v>124.10000000000001</v>
+        <v>129.28</v>
       </c>
       <c r="D189">
-        <v>16034</v>
+        <v>18761</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>91304</v>
+        <v>93534</v>
       </c>
       <c r="B190">
         <v>2009</v>
       </c>
       <c r="C190">
-        <v>136.42000000000002</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="D190">
-        <v>34284</v>
+        <v>726</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>91306</v>
+        <v>91345</v>
       </c>
       <c r="B191">
         <v>2009</v>
       </c>
       <c r="C191">
-        <v>130.81000000000003</v>
+        <v>129.07000000000002</v>
       </c>
       <c r="D191">
-        <v>30427</v>
+        <v>12279</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>91307</v>
+        <v>90604</v>
       </c>
       <c r="B192">
         <v>2009</v>
       </c>
       <c r="C192">
-        <v>159.80000000000001</v>
+        <v>128.99</v>
       </c>
       <c r="D192">
-        <v>17138</v>
+        <v>25145</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>91311</v>
+        <v>93591</v>
       </c>
       <c r="B193">
         <v>2009</v>
       </c>
       <c r="C193">
-        <v>152.27000000000001</v>
+        <v>128.96</v>
       </c>
       <c r="D193">
-        <v>26966</v>
+        <v>15616</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>91316</v>
+        <v>90038</v>
       </c>
       <c r="B194">
         <v>2009</v>
       </c>
       <c r="C194">
-        <v>162.42000000000002</v>
+        <v>128.63999999999999</v>
       </c>
       <c r="D194">
-        <v>20217</v>
+        <v>20441</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>91321</v>
+        <v>91722</v>
       </c>
       <c r="B195">
         <v>2009</v>
       </c>
       <c r="C195">
-        <v>130.69000000000003</v>
+        <v>128.63999999999999</v>
       </c>
       <c r="D195">
-        <v>21873</v>
+        <v>22132</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>91324</v>
+        <v>90247</v>
       </c>
       <c r="B196">
         <v>2009</v>
       </c>
       <c r="C196">
-        <v>147.42000000000004</v>
+        <v>128.51</v>
       </c>
       <c r="D196">
-        <v>16854</v>
+        <v>30602</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>91325</v>
+        <v>91343</v>
       </c>
       <c r="B197">
         <v>2009</v>
       </c>
       <c r="C197">
-        <v>150.34</v>
+        <v>128.27000000000001</v>
       </c>
       <c r="D197">
-        <v>20918</v>
+        <v>36719</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>91326</v>
+        <v>90042</v>
       </c>
       <c r="B198">
         <v>2009</v>
       </c>
       <c r="C198">
-        <v>164.5</v>
+        <v>128.26000000000002</v>
       </c>
       <c r="D198">
-        <v>24296</v>
+        <v>42363</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>91330</v>
+        <v>90602</v>
       </c>
       <c r="B199">
         <v>2009</v>
       </c>
       <c r="C199">
-        <v>156.86000000000001</v>
+        <v>127.66</v>
       </c>
       <c r="D199">
-        <v>79</v>
+        <v>14889</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>91331</v>
+        <v>90706</v>
       </c>
       <c r="B200">
         <v>2009</v>
       </c>
       <c r="C200">
-        <v>100.96</v>
+        <v>127.25</v>
       </c>
       <c r="D200">
-        <v>56150</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>91335</v>
+        <v>93563</v>
       </c>
       <c r="B201">
         <v>2009</v>
       </c>
       <c r="C201">
-        <v>129.31</v>
+        <v>127.16</v>
       </c>
       <c r="D201">
-        <v>48025</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>91340</v>
+        <v>90241</v>
       </c>
       <c r="B202">
         <v>2009</v>
       </c>
       <c r="C202">
-        <v>104.68</v>
+        <v>126.77000000000001</v>
       </c>
       <c r="D202">
-        <v>19306</v>
+        <v>27406</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>91342</v>
+        <v>90704</v>
       </c>
       <c r="B203">
         <v>2009</v>
       </c>
       <c r="C203">
-        <v>120.46999999999998</v>
+        <v>126.67999999999998</v>
       </c>
       <c r="D203">
-        <v>52810</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>91343</v>
+        <v>90250</v>
       </c>
       <c r="B204">
         <v>2009</v>
       </c>
       <c r="C204">
-        <v>128.27000000000001</v>
+        <v>126.38999999999999</v>
       </c>
       <c r="D204">
-        <v>36719</v>
+        <v>57070</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>91344</v>
+        <v>90014</v>
       </c>
       <c r="B205">
         <v>2009</v>
       </c>
       <c r="C205">
-        <v>147.76000000000002</v>
+        <v>126.23</v>
       </c>
       <c r="D205">
-        <v>36603</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>91345</v>
+        <v>90047</v>
       </c>
       <c r="B206">
         <v>2009</v>
       </c>
       <c r="C206">
-        <v>129.07000000000002</v>
+        <v>126.22000000000001</v>
       </c>
       <c r="D206">
-        <v>12279</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>91350</v>
+        <v>90260</v>
       </c>
       <c r="B207">
         <v>2009</v>
       </c>
       <c r="C207">
-        <v>150.59</v>
+        <v>125.96999999999998</v>
       </c>
       <c r="D207">
-        <v>20429</v>
+        <v>20764</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>91351</v>
+        <v>90005</v>
       </c>
       <c r="B208">
         <v>2009</v>
       </c>
       <c r="C208">
-        <v>136.84</v>
+        <v>125.58999999999999</v>
       </c>
       <c r="D208">
-        <v>19863</v>
+        <v>28357</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>91352</v>
+        <v>91606</v>
       </c>
       <c r="B209">
         <v>2009</v>
       </c>
       <c r="C209">
-        <v>116.03999999999999</v>
+        <v>125.29999999999998</v>
       </c>
       <c r="D209">
-        <v>28597</v>
+        <v>30390</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>91354</v>
+        <v>90242</v>
       </c>
       <c r="B210">
         <v>2009</v>
       </c>
       <c r="C210">
-        <v>159.41000000000003</v>
+        <v>124.98</v>
       </c>
       <c r="D210">
-        <v>17942</v>
+        <v>25809</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>91355</v>
+        <v>91702</v>
       </c>
       <c r="B211">
         <v>2009</v>
       </c>
       <c r="C211">
-        <v>156.26</v>
+        <v>124.59000000000002</v>
       </c>
       <c r="D211">
-        <v>21362</v>
+        <v>33394</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>91356</v>
+        <v>91405</v>
       </c>
       <c r="B212">
         <v>2009</v>
       </c>
       <c r="C212">
-        <v>157.33000000000004</v>
+        <v>124.15</v>
       </c>
       <c r="D212">
-        <v>21668</v>
+        <v>32304</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>91361</v>
+        <v>91303</v>
       </c>
       <c r="B213">
         <v>2009</v>
       </c>
       <c r="C213">
-        <v>173.89000000000001</v>
+        <v>124.10000000000001</v>
       </c>
       <c r="D213">
-        <v>14422</v>
+        <v>16034</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>91362</v>
+        <v>90029</v>
       </c>
       <c r="B214">
         <v>2009</v>
       </c>
       <c r="C214">
-        <v>169.07999999999998</v>
+        <v>123.81000000000002</v>
       </c>
       <c r="D214">
-        <v>23962</v>
+        <v>26821</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>91364</v>
+        <v>90640</v>
       </c>
       <c r="B215">
         <v>2009</v>
       </c>
       <c r="C215">
-        <v>167.11</v>
+        <v>123.76000000000002</v>
       </c>
       <c r="D215">
-        <v>18353</v>
+        <v>41126</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>91367</v>
+        <v>93543</v>
       </c>
       <c r="B216">
         <v>2009</v>
       </c>
       <c r="C216">
-        <v>165.88</v>
+        <v>123.37</v>
       </c>
       <c r="D216">
-        <v>28509</v>
+        <v>48722</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>91377</v>
+        <v>90021</v>
       </c>
       <c r="B217">
         <v>2009</v>
       </c>
       <c r="C217">
-        <v>177.01</v>
+        <v>123.28000000000003</v>
       </c>
       <c r="D217">
-        <v>9058</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>91381</v>
+        <v>90605</v>
       </c>
       <c r="B218">
         <v>2009</v>
       </c>
       <c r="C218">
-        <v>166.25000000000003</v>
+        <v>123.08999999999999</v>
       </c>
       <c r="D218">
-        <v>11247</v>
+        <v>24736</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>91384</v>
+        <v>90807</v>
       </c>
       <c r="B219">
         <v>2009</v>
       </c>
       <c r="C219">
-        <v>136.81</v>
+        <v>122.61999999999999</v>
       </c>
       <c r="D219">
-        <v>18042</v>
+        <v>24014</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>91387</v>
+        <v>90650</v>
       </c>
       <c r="B220">
         <v>2009</v>
       </c>
       <c r="C220">
-        <v>145.25</v>
+        <v>122.48000000000002</v>
       </c>
       <c r="D220">
-        <v>24831</v>
+        <v>64907</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>91390</v>
+        <v>91767</v>
       </c>
       <c r="B221">
         <v>2009</v>
       </c>
       <c r="C221">
-        <v>152.84</v>
+        <v>121.89000000000001</v>
       </c>
       <c r="D221">
-        <v>12535</v>
+        <v>28399</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>91401</v>
+        <v>90813</v>
       </c>
       <c r="B222">
         <v>2009</v>
       </c>
       <c r="C222">
-        <v>135.16</v>
+        <v>121</v>
       </c>
       <c r="D222">
-        <v>26689</v>
+        <v>21858</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>91402</v>
+        <v>90012</v>
       </c>
       <c r="B223">
         <v>2009</v>
       </c>
       <c r="C223">
-        <v>112.69000000000001</v>
+        <v>120.56000000000002</v>
       </c>
       <c r="D223">
-        <v>40981</v>
+        <v>21671</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>91403</v>
+        <v>91342</v>
       </c>
       <c r="B224">
         <v>2009</v>
       </c>
       <c r="C224">
-        <v>172.07</v>
+        <v>120.46999999999998</v>
       </c>
       <c r="D224">
-        <v>18463</v>
+        <v>52810</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>91405</v>
+        <v>90016</v>
       </c>
       <c r="B225">
         <v>2009</v>
       </c>
       <c r="C225">
-        <v>124.15</v>
+        <v>119.97000000000001</v>
       </c>
       <c r="D225">
-        <v>32304</v>
+        <v>29375</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>91406</v>
+        <v>90073</v>
       </c>
       <c r="B226">
         <v>2009</v>
       </c>
       <c r="C226">
-        <v>130.12000000000003</v>
+        <v>119.37</v>
       </c>
       <c r="D226">
-        <v>34274</v>
+        <v>523</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>91411</v>
+        <v>90301</v>
       </c>
       <c r="B227">
         <v>2009</v>
       </c>
       <c r="C227">
-        <v>132.34</v>
+        <v>118.62</v>
       </c>
       <c r="D227">
-        <v>16271</v>
+        <v>22884</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>91423</v>
+        <v>90670</v>
       </c>
       <c r="B228">
         <v>2009</v>
       </c>
       <c r="C228">
-        <v>166.69000000000003</v>
+        <v>118.51000000000002</v>
       </c>
       <c r="D228">
-        <v>23631</v>
+        <v>9467</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>91436</v>
+        <v>90806</v>
       </c>
       <c r="B229">
         <v>2009</v>
       </c>
       <c r="C229">
-        <v>177.86</v>
+        <v>118.25999999999999</v>
       </c>
       <c r="D229">
-        <v>10200</v>
+        <v>51861</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>91501</v>
+        <v>91770</v>
       </c>
       <c r="B230">
         <v>2009</v>
       </c>
       <c r="C230">
-        <v>148.37</v>
+        <v>117.07000000000001</v>
       </c>
       <c r="D230">
-        <v>15278</v>
+        <v>43077</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>91502</v>
+        <v>91766</v>
       </c>
       <c r="B231">
         <v>2009</v>
       </c>
       <c r="C231">
-        <v>134.5</v>
+        <v>116.47000000000001</v>
       </c>
       <c r="D231">
-        <v>8353</v>
+        <v>38959</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>91504</v>
+        <v>90606</v>
       </c>
       <c r="B232">
         <v>2009</v>
       </c>
       <c r="C232">
-        <v>146.80000000000001</v>
+        <v>116.45000000000003</v>
       </c>
       <c r="D232">
-        <v>18197</v>
+        <v>20905</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>91505</v>
+        <v>91352</v>
       </c>
       <c r="B233">
         <v>2009</v>
       </c>
       <c r="C233">
-        <v>152.16</v>
+        <v>116.03999999999999</v>
       </c>
       <c r="D233">
-        <v>21102</v>
+        <v>28597</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>91506</v>
+        <v>91768</v>
       </c>
       <c r="B234">
         <v>2009</v>
       </c>
       <c r="C234">
-        <v>151.00000000000003</v>
+        <v>116</v>
       </c>
       <c r="D234">
-        <v>13626</v>
+        <v>18779</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>91601</v>
+        <v>91605</v>
       </c>
       <c r="B235">
         <v>2009</v>
       </c>
       <c r="C235">
-        <v>143.5</v>
+        <v>115.81</v>
       </c>
       <c r="D235">
-        <v>24730</v>
+        <v>33987</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>91602</v>
+        <v>90032</v>
       </c>
       <c r="B236">
         <v>2009</v>
       </c>
       <c r="C236">
-        <v>161.96</v>
+        <v>114.94999999999999</v>
       </c>
       <c r="D236">
-        <v>14190</v>
+        <v>28893</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>91604</v>
+        <v>90660</v>
       </c>
       <c r="B237">
         <v>2009</v>
       </c>
       <c r="C237">
-        <v>172.4</v>
+        <v>114.9</v>
       </c>
       <c r="D237">
-        <v>21861</v>
+        <v>39514</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>91605</v>
+        <v>90018</v>
       </c>
       <c r="B238">
         <v>2009</v>
       </c>
       <c r="C238">
-        <v>115.81</v>
+        <v>114.01999999999998</v>
       </c>
       <c r="D238">
-        <v>33987</v>
+        <v>30233</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>91606</v>
+        <v>90303</v>
       </c>
       <c r="B239">
         <v>2009</v>
       </c>
       <c r="C239">
-        <v>125.29999999999998</v>
+        <v>113.12</v>
       </c>
       <c r="D239">
-        <v>30390</v>
+        <v>15119</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>91607</v>
+        <v>90007</v>
       </c>
       <c r="B240">
         <v>2009</v>
       </c>
       <c r="C240">
-        <v>156.95000000000002</v>
+        <v>112.93</v>
       </c>
       <c r="D240">
-        <v>21657</v>
+        <v>19096</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>91702</v>
+        <v>91402</v>
       </c>
       <c r="B241">
         <v>2009</v>
       </c>
       <c r="C241">
-        <v>124.59000000000002</v>
+        <v>112.69000000000001</v>
       </c>
       <c r="D241">
-        <v>33394</v>
+        <v>40981</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>91706</v>
+        <v>91746</v>
       </c>
       <c r="B242">
         <v>2009</v>
       </c>
       <c r="C242">
-        <v>110.84000000000002</v>
+        <v>112.57000000000001</v>
       </c>
       <c r="D242">
-        <v>44848</v>
+        <v>19266</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>91711</v>
+        <v>90015</v>
       </c>
       <c r="B243">
         <v>2009</v>
       </c>
       <c r="C243">
-        <v>171.70000000000002</v>
+        <v>111.75</v>
       </c>
       <c r="D243">
-        <v>21974</v>
+        <v>11134</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>91722</v>
+        <v>90220</v>
       </c>
       <c r="B244">
         <v>2009</v>
       </c>
       <c r="C244">
-        <v>128.63999999999999</v>
+        <v>111.72000000000001</v>
       </c>
       <c r="D244">
-        <v>22132</v>
+        <v>27586</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>91723</v>
+        <v>91706</v>
       </c>
       <c r="B245">
         <v>2009</v>
       </c>
       <c r="C245">
-        <v>137.23999999999998</v>
+        <v>110.84000000000002</v>
       </c>
       <c r="D245">
-        <v>11979</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>91724</v>
+        <v>90057</v>
       </c>
       <c r="B246">
         <v>2009</v>
       </c>
       <c r="C246">
-        <v>142.20000000000002</v>
+        <v>110.83</v>
       </c>
       <c r="D246">
-        <v>15933</v>
+        <v>28475</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>91731</v>
+        <v>91744</v>
       </c>
       <c r="B247">
         <v>2009</v>
       </c>
       <c r="C247">
-        <v>107.65</v>
+        <v>110.66999999999999</v>
       </c>
       <c r="D247">
-        <v>18407</v>
+        <v>47843</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>91732</v>
+        <v>90062</v>
       </c>
       <c r="B248">
         <v>2009</v>
       </c>
       <c r="C248">
-        <v>108.56</v>
+        <v>110.23</v>
       </c>
       <c r="D248">
-        <v>37816</v>
+        <v>19059</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>91733</v>
+        <v>90044</v>
       </c>
       <c r="B249">
         <v>2009</v>
       </c>
       <c r="C249">
-        <v>100.58000000000001</v>
+        <v>108.97000000000001</v>
       </c>
       <c r="D249">
-        <v>26537</v>
+        <v>48342</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>91740</v>
+        <v>91732</v>
       </c>
       <c r="B250">
         <v>2009</v>
       </c>
       <c r="C250">
-        <v>137.04000000000002</v>
+        <v>108.56</v>
       </c>
       <c r="D250">
-        <v>16659</v>
+        <v>37816</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>91741</v>
+        <v>93553</v>
       </c>
       <c r="B251">
         <v>2009</v>
       </c>
       <c r="C251">
-        <v>154.21</v>
+        <v>107.86</v>
       </c>
       <c r="D251">
-        <v>16503</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>91744</v>
+        <v>91731</v>
       </c>
       <c r="B252">
         <v>2009</v>
       </c>
       <c r="C252">
-        <v>110.66999999999999</v>
+        <v>107.65</v>
       </c>
       <c r="D252">
-        <v>47843</v>
+        <v>18407</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>91745</v>
+        <v>90723</v>
       </c>
       <c r="B253">
         <v>2009</v>
       </c>
       <c r="C253">
-        <v>143.72</v>
+        <v>107.44000000000001</v>
       </c>
       <c r="D253">
-        <v>38330</v>
+        <v>30026</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>91746</v>
+        <v>90814</v>
       </c>
       <c r="B254">
         <v>2009</v>
       </c>
       <c r="C254">
-        <v>112.57000000000001</v>
+        <v>106.95</v>
       </c>
       <c r="D254">
-        <v>19266</v>
+        <v>30767</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>91748</v>
+        <v>90031</v>
       </c>
       <c r="B255">
         <v>2009</v>
       </c>
       <c r="C255">
-        <v>145.35999999999999</v>
+        <v>106.87</v>
       </c>
       <c r="D255">
-        <v>32742</v>
+        <v>24965</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>91750</v>
+        <v>90716</v>
       </c>
       <c r="B256">
         <v>2009</v>
       </c>
       <c r="C256">
-        <v>149.88999999999999</v>
+        <v>106.75000000000003</v>
       </c>
       <c r="D256">
-        <v>22635</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>91754</v>
+        <v>90061</v>
       </c>
       <c r="B257">
         <v>2009</v>
       </c>
       <c r="C257">
-        <v>136.88000000000002</v>
+        <v>106.63</v>
       </c>
       <c r="D257">
-        <v>23059</v>
+        <v>14699</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>91755</v>
+        <v>90017</v>
       </c>
       <c r="B258">
         <v>2009</v>
       </c>
       <c r="C258">
-        <v>130.6</v>
+        <v>106.42000000000002</v>
       </c>
       <c r="D258">
-        <v>20146</v>
+        <v>13364</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>91765</v>
+        <v>90006</v>
       </c>
       <c r="B259">
         <v>2009</v>
       </c>
       <c r="C259">
-        <v>162.37</v>
+        <v>106.30000000000001</v>
       </c>
       <c r="D259">
-        <v>32745</v>
+        <v>36776</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>91766</v>
+        <v>90222</v>
       </c>
       <c r="B260">
         <v>2009</v>
       </c>
       <c r="C260">
-        <v>116.47000000000001</v>
+        <v>106.22000000000001</v>
       </c>
       <c r="D260">
-        <v>38959</v>
+        <v>16661</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>91767</v>
+        <v>90744</v>
       </c>
       <c r="B261">
         <v>2009</v>
       </c>
       <c r="C261">
-        <v>121.89000000000001</v>
+        <v>105.16</v>
       </c>
       <c r="D261">
-        <v>28399</v>
+        <v>30796</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>91768</v>
+        <v>91340</v>
       </c>
       <c r="B262">
         <v>2009</v>
       </c>
       <c r="C262">
-        <v>116</v>
+        <v>104.68</v>
       </c>
       <c r="D262">
-        <v>18779</v>
+        <v>19306</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>91770</v>
+        <v>90059</v>
       </c>
       <c r="B263">
         <v>2009</v>
       </c>
       <c r="C263">
-        <v>117.07000000000001</v>
+        <v>104.21000000000002</v>
       </c>
       <c r="D263">
-        <v>43077</v>
+        <v>20081</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>91773</v>
+        <v>90040</v>
       </c>
       <c r="B264">
         <v>2009</v>
       </c>
       <c r="C264">
-        <v>149.85000000000002</v>
+        <v>102.65</v>
       </c>
       <c r="D264">
-        <v>23089</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>91775</v>
+        <v>90280</v>
       </c>
       <c r="B265">
         <v>2009</v>
       </c>
       <c r="C265">
-        <v>154.09</v>
+        <v>101.33</v>
       </c>
       <c r="D265">
-        <v>17240</v>
+        <v>53813</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>91776</v>
+        <v>91331</v>
       </c>
       <c r="B266">
         <v>2009</v>
       </c>
       <c r="C266">
-        <v>132.13999999999999</v>
+        <v>100.96</v>
       </c>
       <c r="D266">
-        <v>27101</v>
+        <v>56150</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>91780</v>
+        <v>90221</v>
       </c>
       <c r="B267">
         <v>2009</v>
       </c>
       <c r="C267">
-        <v>147.01000000000002</v>
+        <v>100.94</v>
       </c>
       <c r="D267">
-        <v>23902</v>
+        <v>27256</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>91789</v>
+        <v>91733</v>
       </c>
       <c r="B268">
         <v>2009</v>
       </c>
       <c r="C268">
-        <v>160.13</v>
+        <v>100.58000000000001</v>
       </c>
       <c r="D268">
-        <v>28650</v>
+        <v>26537</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>91790</v>
+        <v>90262</v>
       </c>
       <c r="B269">
         <v>2009</v>
       </c>
       <c r="C269">
-        <v>130.04000000000002</v>
+        <v>100.31</v>
       </c>
       <c r="D269">
-        <v>27867</v>
+        <v>37901</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>91791</v>
+        <v>90002</v>
       </c>
       <c r="B270">
         <v>2009</v>
       </c>
       <c r="C270">
-        <v>142.54</v>
+        <v>99.88000000000001</v>
       </c>
       <c r="D270">
-        <v>20906</v>
+        <v>23414</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>91792</v>
+        <v>90304</v>
       </c>
       <c r="B271">
         <v>2009</v>
       </c>
       <c r="C271">
-        <v>144.01999999999998</v>
+        <v>99.4</v>
       </c>
       <c r="D271">
-        <v>20027</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>91801</v>
+        <v>90033</v>
       </c>
       <c r="B272">
         <v>2009</v>
       </c>
       <c r="C272">
-        <v>140.94000000000003</v>
+        <v>99.12</v>
       </c>
       <c r="D272">
-        <v>38712</v>
+        <v>26961</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>91803</v>
+        <v>90003</v>
       </c>
       <c r="B273">
         <v>2009</v>
       </c>
       <c r="C273">
-        <v>134.65000000000003</v>
+        <v>98.73</v>
       </c>
       <c r="D273">
-        <v>21892</v>
+        <v>33790</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>93510</v>
+        <v>90063</v>
       </c>
       <c r="B274">
         <v>2009</v>
       </c>
       <c r="C274">
-        <v>143.01000000000002</v>
+        <v>97.85</v>
       </c>
       <c r="D274">
-        <v>11556</v>
+        <v>30630</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>93532</v>
+        <v>90037</v>
       </c>
       <c r="B275">
         <v>2009</v>
       </c>
       <c r="C275">
-        <v>152.80000000000001</v>
+        <v>97.649999999999991</v>
       </c>
       <c r="D275">
-        <v>12339</v>
+        <v>34017</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>93534</v>
+        <v>90022</v>
       </c>
       <c r="B276">
         <v>2009</v>
       </c>
       <c r="C276">
-        <v>129.08000000000001</v>
+        <v>97.600000000000023</v>
       </c>
       <c r="D276">
-        <v>726</v>
+        <v>38805</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>93535</v>
+        <v>90255</v>
       </c>
       <c r="B277">
         <v>2009</v>
       </c>
       <c r="C277">
-        <v>134.9</v>
+        <v>97.54</v>
       </c>
       <c r="D277">
-        <v>2163</v>
+        <v>42609</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>93536</v>
+        <v>90023</v>
       </c>
       <c r="B278">
         <v>2009</v>
       </c>
       <c r="C278">
-        <v>137.82000000000002</v>
+        <v>94.46</v>
       </c>
       <c r="D278">
-        <v>46851</v>
+        <v>24945</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>93543</v>
+        <v>90201</v>
       </c>
       <c r="B279">
         <v>2009</v>
       </c>
       <c r="C279">
-        <v>123.37</v>
+        <v>94.110000000000014</v>
       </c>
       <c r="D279">
-        <v>48722</v>
+        <v>54705</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>93544</v>
+        <v>90001</v>
       </c>
       <c r="B280">
         <v>2009</v>
       </c>
       <c r="C280">
-        <v>150.87999999999997</v>
+        <v>92.39</v>
       </c>
       <c r="D280">
-        <v>24150</v>
+        <v>29210</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>93550</v>
+        <v>90270</v>
       </c>
       <c r="B281">
         <v>2009</v>
       </c>
       <c r="C281">
-        <v>158.29000000000002</v>
+        <v>90.51</v>
       </c>
       <c r="D281">
-        <v>9820</v>
+        <v>14667</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>93551</v>
+        <v>90058</v>
       </c>
       <c r="B282">
         <v>2009</v>
       </c>
       <c r="C282">
-        <v>157.60000000000002</v>
+        <v>89.98</v>
       </c>
       <c r="D282">
-        <v>13804</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>93552</v>
+        <v>90011</v>
       </c>
       <c r="B283">
         <v>2009</v>
       </c>
       <c r="C283">
-        <v>142.35000000000002</v>
+        <v>89.84</v>
       </c>
       <c r="D283">
-        <v>1043</v>
+        <v>54310</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>93553</v>
+        <v>90089</v>
       </c>
       <c r="B284">
         <v>2009</v>
-      </c>
-      <c r="C284">
-        <v>107.86</v>
-      </c>
-      <c r="D284">
-        <v>314</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>93563</v>
+        <v>90755</v>
       </c>
       <c r="B285">
         <v>2009</v>
-      </c>
-      <c r="C285">
-        <v>127.16</v>
-      </c>
-      <c r="D285">
-        <v>272</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>93591</v>
+        <v>91006</v>
       </c>
       <c r="B286">
         <v>2009</v>
       </c>
-      <c r="C286">
-        <v>128.96</v>
-      </c>
-      <c r="D286">
-        <v>15616</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1141" xr:uid="{9E84A96A-8D38-4F27-823E-8C9411C26858}"/>
+  <autoFilter ref="A1:D1141" xr:uid="{9E84A96A-8D38-4F27-823E-8C9411C26858}">
+    <sortState ref="A2:D1141">
+      <sortCondition descending="1" ref="C1:C1141"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16392,8 +16398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
